--- a/stock_foreign/系统建模表.xlsx
+++ b/stock_foreign/系统建模表.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="7635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="104">
   <si>
     <t>列11</t>
   </si>
@@ -49,10 +50,6 @@
     <t>列17</t>
   </si>
   <si>
-    <t>资金总额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资金使用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +222,167 @@
   </si>
   <si>
     <t>收益=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.23 12:02:23</t>
+  </si>
+  <si>
+    <t>2015.04.23 13:19:21</t>
+  </si>
+  <si>
+    <t>2015.04.23 12:02:22</t>
+  </si>
+  <si>
+    <t>2015.04.23 14:25:43</t>
+  </si>
+  <si>
+    <t>2015.04.23 12:02:21</t>
+  </si>
+  <si>
+    <t>2015.04.23 14:25:40</t>
+  </si>
+  <si>
+    <t>2015.04.23 11:02:21</t>
+  </si>
+  <si>
+    <t>2015.04.23 13:00:53</t>
+  </si>
+  <si>
+    <t>2015.04.23 11:02:20</t>
+  </si>
+  <si>
+    <t>2015.04.23 13:00:52</t>
+  </si>
+  <si>
+    <t>2015.04.23 10:02:20</t>
+  </si>
+  <si>
+    <t>2015.04.23 13:15:30</t>
+  </si>
+  <si>
+    <t>2015.04.23 10:02:19</t>
+  </si>
+  <si>
+    <t>2015.04.23 13:15:25</t>
+  </si>
+  <si>
+    <t>2015.04.23 09:24:36</t>
+  </si>
+  <si>
+    <t>2015.04.23 12:59:42</t>
+  </si>
+  <si>
+    <t>2015.04.23 09:24:35</t>
+  </si>
+  <si>
+    <t>2015.04.23 07:02:22</t>
+  </si>
+  <si>
+    <t>2015.04.23 08:31:30</t>
+  </si>
+  <si>
+    <t>2015.04.23 07:02:21</t>
+  </si>
+  <si>
+    <t>2015.04.23 07:02:20</t>
+  </si>
+  <si>
+    <t>2015.04.23 08:19:38</t>
+  </si>
+  <si>
+    <t>2015.04.23 08:19:39</t>
+  </si>
+  <si>
+    <t>2015.04.23 13:19:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*概率*24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均单位时间建仓数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平仓时间-建仓时间 平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最上层计算公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组单价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止盈比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止盈点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止损点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯止盈点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关度点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止损比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建仓能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位时间平仓能力（天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调配值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周度营收比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周度营收预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +394,7 @@
     <numFmt numFmtId="176" formatCode="0.000%"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,13 +411,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,13 +447,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -287,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,23 +542,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -404,7 +687,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:Y22" totalsRowShown="0">
   <autoFilter ref="A1:Y22"/>
   <tableColumns count="25">
-    <tableColumn id="1" name="资金总额"/>
+    <tableColumn id="1" name="总资本"/>
     <tableColumn id="18" name="平均每天开单数"/>
     <tableColumn id="2" name="资金使用率"/>
     <tableColumn id="3" name="单比风控比例"/>
@@ -413,26 +696,26 @@
     <tableColumn id="25" name="平均买入点差"/>
     <tableColumn id="26" name="平均卖出点差"/>
     <tableColumn id="27" name="总点差"/>
-    <tableColumn id="28" name="总点差百分比" dataDxfId="0"/>
-    <tableColumn id="24" name="数学期望" dataDxfId="5">
+    <tableColumn id="28" name="总点差百分比" dataDxfId="2"/>
+    <tableColumn id="24" name="数学期望" dataDxfId="7">
       <calculatedColumnFormula>表1[[#This Row],[成功比例]]*表1[[#This Row],[单比风控比例]]-(1-表1[[#This Row],[成功比例]])*表1[[#This Row],[止损风控]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="平均交易时长"/>
-    <tableColumn id="20" name="预期月度收益率" dataDxfId="1">
+    <tableColumn id="20" name="预期月度收益率" dataDxfId="3">
       <calculatedColumnFormula>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="预期年度收益率" dataDxfId="4">
+    <tableColumn id="19" name="预期年度收益率" dataDxfId="6">
       <calculatedColumnFormula>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="预期月度收益" dataDxfId="3">
-      <calculatedColumnFormula>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</calculatedColumnFormula>
+    <tableColumn id="5" name="预期月度收益" dataDxfId="5">
+      <calculatedColumnFormula>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="预期年度收益" dataDxfId="2">
-      <calculatedColumnFormula>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</calculatedColumnFormula>
+    <tableColumn id="6" name="预期年度收益" dataDxfId="4">
+      <calculatedColumnFormula>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="杠杆比例"/>
-    <tableColumn id="10" name="实际年化利率" dataDxfId="6">
-      <calculatedColumnFormula>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</calculatedColumnFormula>
+    <tableColumn id="10" name="实际年化利率" dataDxfId="8">
+      <calculatedColumnFormula>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="列11"/>
     <tableColumn id="12" name="列12"/>
@@ -441,6 +724,30 @@
     <tableColumn id="15" name="列15"/>
     <tableColumn id="16" name="列16"/>
     <tableColumn id="17" name="列17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:O35" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
+  <autoFilter ref="A3:O35"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="总资本"/>
+    <tableColumn id="2" name="组单价格"/>
+    <tableColumn id="3" name="止盈点"/>
+    <tableColumn id="4" name="止损点"/>
+    <tableColumn id="5" name="高斯系数"/>
+    <tableColumn id="6" name="高斯止盈点"/>
+    <tableColumn id="7" name="相关度点"/>
+    <tableColumn id="8" name="止盈比例"/>
+    <tableColumn id="9" name="止损比例"/>
+    <tableColumn id="10" name="高斯比例"/>
+    <tableColumn id="11" name="建仓能力"/>
+    <tableColumn id="12" name="单位时间平仓能力（天）"/>
+    <tableColumn id="13" name="周度营收比例"/>
+    <tableColumn id="14" name="周度营收预期"/>
+    <tableColumn id="21" name="周数"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -711,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,58 +1041,58 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
       <c r="S1" t="s">
         <v>0</v>
@@ -856,18 +1163,18 @@
         <v>1283305580313383.5</v>
       </c>
       <c r="O2" s="4">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>4009.2499645279263</v>
       </c>
       <c r="P2" s="4">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>8.9831390621936832E+17</v>
       </c>
       <c r="Q2">
         <v>100</v>
       </c>
       <c r="R2" s="3">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>898313906219368.37</v>
       </c>
     </row>
@@ -885,15 +1192,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O3" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P3" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R3" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -911,15 +1218,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O4" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R4" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -937,15 +1244,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O5" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P5" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R5" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -963,15 +1270,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O6" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P6" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R6" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -989,15 +1296,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O7" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P7" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R7" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1015,15 +1322,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O8" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P8" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R8" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1041,15 +1348,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O9" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P9" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R9" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1067,15 +1374,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O10" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P10" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R10" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1093,15 +1400,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O11" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R11" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1119,15 +1426,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O12" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P12" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R12" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1145,15 +1452,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O13" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P13" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R13" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1171,15 +1478,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O14" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P14" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R14" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1197,15 +1504,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O15" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P15" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1223,15 +1530,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1249,15 +1556,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O17" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R17" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1275,15 +1582,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O18" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P18" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R18" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1301,15 +1608,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R19" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1327,15 +1634,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R20" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1353,15 +1660,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1379,15 +1686,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),20)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="3" t="e">
-        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[资金总额]]*表1[[#This Row],[资金使用率]]</f>
+        <f>(POWER((1+表1[[#This Row],[数学期望]]*表1[[#This Row],[杠杆比例]]/表1[[#This Row],[平均交易时长]]),365)-1)*表1[[#This Row],[总资本]]*表1[[#This Row],[资金使用率]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R22" s="3" t="e">
-        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[资金总额]]</f>
+        <f>表1[[#This Row],[预期年度收益]]/表1[[#This Row],[总资本]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1415,6 +1722,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1428,16 +1875,16 @@
         <v>16384284</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="F1" s="6">
         <v>0.95155000000000001</v>
@@ -1449,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" s="6">
         <v>0.95530000000000004</v>
@@ -1472,16 +1919,16 @@
         <v>16384285</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F2" s="8">
         <v>1.4268000000000001</v>
@@ -1493,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="8">
         <v>1.4401200000000001</v>
@@ -1516,16 +1963,16 @@
         <v>16384282</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="6">
         <v>1.02583</v>
@@ -1537,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="6">
         <v>1.0288999999999999</v>
@@ -1560,16 +2007,16 @@
         <v>16384283</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="8">
         <v>1.42682</v>
@@ -1581,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="8">
         <v>1.44011</v>
@@ -1604,16 +2051,16 @@
         <v>16370416</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="6">
         <v>1.0251600000000001</v>
@@ -1625,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="6">
         <v>1.0258100000000001</v>
@@ -1648,16 +2095,16 @@
         <v>16370417</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F6" s="8">
         <v>1.42591</v>
@@ -1669,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="8">
         <v>1.4241299999999999</v>
@@ -1692,16 +2139,16 @@
         <v>16366407</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F7" s="6">
         <v>1.4262699999999999</v>
@@ -1713,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="6">
         <v>1.4241999999999999</v>
@@ -1736,16 +2183,16 @@
         <v>16366405</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="8">
         <v>1.0249600000000001</v>
@@ -1757,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="8">
         <v>1.02542</v>
@@ -1780,16 +2227,16 @@
         <v>16365377</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="6">
         <v>1.42605</v>
@@ -1801,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="6">
         <v>1.42422</v>
@@ -1824,16 +2271,16 @@
         <v>16365376</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F10" s="8">
         <v>1.0248900000000001</v>
@@ -1845,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="8">
         <v>1.0254700000000001</v>
@@ -1868,16 +2315,16 @@
         <v>16296460</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="F11" s="6">
         <v>1.0263500000000001</v>
@@ -1889,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="6">
         <v>1.0251999999999999</v>
@@ -1912,16 +2359,16 @@
         <v>16296461</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F12" s="8">
         <v>1.42859</v>
@@ -1933,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="8">
         <v>1.42475</v>
@@ -1956,16 +2403,16 @@
         <v>16293358</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="6">
         <v>1.42726</v>
@@ -1977,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="6">
         <v>1.4248499999999999</v>
@@ -2000,16 +2447,16 @@
         <v>16293357</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F14" s="8">
         <v>1.0255799999999999</v>
@@ -2021,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="8">
         <v>1.02559</v>
@@ -2044,16 +2491,16 @@
         <v>16290065</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F15" s="6">
         <v>1.4284399999999999</v>
@@ -2065,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" s="6">
         <v>1.42536</v>
@@ -2088,16 +2535,16 @@
         <v>16290064</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F16" s="8">
         <v>1.0253399999999999</v>
@@ -2109,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="8">
         <v>1.02565</v>
@@ -2129,17 +2576,17 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2148,16 +2595,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:Q18"/>
+  <dimension ref="C7:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K7:Q18"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2166,16 +2614,16 @@
         <v>16370416</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="H7" s="6">
         <v>1.0251600000000001</v>
@@ -2187,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" s="6">
         <v>1.0258100000000001</v>
@@ -2213,16 +2661,16 @@
         <v>16370417</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="H8" s="8">
         <v>1.42591</v>
@@ -2234,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="8">
         <v>1.4241299999999999</v>
@@ -2261,16 +2709,16 @@
         <v>16366407</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="H9" s="6">
         <v>1.4262699999999999</v>
@@ -2282,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="6">
         <v>1.4241999999999999</v>
@@ -2308,16 +2756,16 @@
         <v>16366405</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="H10" s="8">
         <v>1.0249600000000001</v>
@@ -2329,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="8">
         <v>1.02542</v>
@@ -2356,16 +2804,16 @@
         <v>16365377</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="H11" s="6">
         <v>1.42605</v>
@@ -2377,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="6">
         <v>1.42422</v>
@@ -2403,16 +2851,16 @@
         <v>16365376</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="H12" s="8">
         <v>1.0248900000000001</v>
@@ -2424,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" s="8">
         <v>1.0254700000000001</v>
@@ -2451,16 +2899,16 @@
         <v>16296460</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="H13" s="6">
         <v>1.0263500000000001</v>
@@ -2472,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="6">
         <v>1.0251999999999999</v>
@@ -2498,16 +2946,16 @@
         <v>16296461</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="H14" s="8">
         <v>1.42859</v>
@@ -2519,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="8">
         <v>1.42475</v>
@@ -2546,16 +2994,16 @@
         <v>16293358</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="H15" s="6">
         <v>1.42726</v>
@@ -2567,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" s="6">
         <v>1.4248499999999999</v>
@@ -2593,16 +3041,16 @@
         <v>16293357</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="H16" s="8">
         <v>1.0255799999999999</v>
@@ -2614,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" s="8">
         <v>1.02559</v>
@@ -2641,16 +3089,16 @@
         <v>16290064</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="H17" s="6">
         <v>1.0253399999999999</v>
@@ -2662,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L17" s="6">
         <v>1.02565</v>
@@ -2688,16 +3136,16 @@
         <v>16290065</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="H18" s="8">
         <v>1.4284399999999999</v>
@@ -2709,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" s="8">
         <v>1.42536</v>
@@ -2729,6 +3177,712 @@
       <c r="Q18">
         <f t="shared" ref="Q18" si="2">P17+P18</f>
         <v>3.55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C20" s="6">
+        <v>16508885</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.44811</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1.44478</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3.46</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C21" s="8">
+        <v>16508883</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.96403000000000005</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.96316000000000002</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>-0.9</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21" si="3">P20+P21</f>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C22" s="6">
+        <v>16508882</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.4481200000000001</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1.43988</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C23" s="8">
+        <v>16508880</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1.03837</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1.0334399999999999</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>-5.15</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23" si="4">P22+P23</f>
+        <v>3.4499999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C24" s="6">
+        <v>16503415</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1.44763</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1.4454499999999999</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C25" s="8">
+        <v>16503412</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1.0366200000000001</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1.0370200000000001</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25" si="5">P24+P25</f>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C26" s="6">
+        <v>16499546</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1.4467399999999999</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1.4448300000000001</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C27" s="8">
+        <v>16499545</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1.03664</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1.03738</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27" si="6">P26+P27</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C28" s="6">
+        <v>16496712</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.44797</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1.4460900000000001</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C29" s="8">
+        <v>16496711</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1.0363800000000001</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1.0369699999999999</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29" si="7">P28+P29</f>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C30" s="6">
+        <v>16478399</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1.4524900000000001</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1.4477100000000001</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C31" s="8">
+        <v>16478392</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.96926000000000001</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.96716999999999997</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
+        <v>-2.16</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31" si="8">P30+P31</f>
+        <v>2.7800000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C32" s="6">
+        <v>16478370</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1.0350200000000001</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1.0369200000000001</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C33" s="8">
+        <v>16478383</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1.4524699999999999</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1.4517800000000001</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33" si="9">P32+P33</f>
+        <v>2.6799999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="K35">
+        <v>4500</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <f>L35/K35</f>
+        <v>4.2222222222222218E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="I37" s="11">
+        <v>42083</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="K38" t="e">
+        <f>1000/(I372.5*1000/100)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="I41" t="s">
+        <v>83</v>
+      </c>
+      <c r="L41">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
